--- a/微机原理.xlsx
+++ b/微机原理.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第一章" sheetId="1" r:id="rId1"/>
     <sheet name="第二章" sheetId="2" r:id="rId2"/>
-    <sheet name="书签" sheetId="3" r:id="rId3"/>
+    <sheet name="第三章" sheetId="4" r:id="rId3"/>
+    <sheet name="第四章" sheetId="5" r:id="rId4"/>
+    <sheet name="书签" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
   <si>
     <t>微机原理</t>
   </si>
@@ -238,6 +240,81 @@
   </si>
   <si>
     <t>2.1.2处理器的基本工作原理</t>
+  </si>
+  <si>
+    <t>IP地址指向0，IP的值送入地址寄存此AR，IP++，地址经过译码器找到内存地址，</t>
+  </si>
+  <si>
+    <t>进入内存中拿操作码送到DR，送到指令寄存器IR，送到DR译码。送到PLA执行命令相关的控制</t>
+  </si>
+  <si>
+    <t>2.2微处理器8086的功能结构</t>
+  </si>
+  <si>
+    <t>2.2.1总线接口单元（BLU）</t>
+  </si>
+  <si>
+    <t>2.2.2执行单元（EU）</t>
+  </si>
+  <si>
+    <t>2.2.3引脚功能</t>
+  </si>
+  <si>
+    <t>2.2.4寄存器组</t>
+  </si>
+  <si>
+    <t>2.2.5基本时序</t>
+  </si>
+  <si>
+    <t>8086的时序有时钟周期，指令周期，总线周期</t>
+  </si>
+  <si>
+    <t>⑴时钟周期</t>
+  </si>
+  <si>
+    <t>就是时钟信号的频率</t>
+  </si>
+  <si>
+    <t>⑵指令周期</t>
+  </si>
+  <si>
+    <t>完成一个指令需要的时钟个数，包括取指令，译码等，8086最短的指令2个时钟周期，最长200个时钟周期</t>
+  </si>
+  <si>
+    <t>⑶总线周期</t>
+  </si>
+  <si>
+    <t>2.3-2.6没啥用</t>
+  </si>
+  <si>
+    <t>第三章：半导体存储器</t>
+  </si>
+  <si>
+    <t>3.1-3.4没啥用</t>
+  </si>
+  <si>
+    <t>3.5虚拟存储系统简介</t>
+  </si>
+  <si>
+    <t>现在计算机都64位的了，寻址能力是2^34GB，做不出这么大的内存，就算做出来也贼贵，效率也贼低，这样就有了虚拟内存技术。</t>
+  </si>
+  <si>
+    <t>3.5.1虚拟存储器基本原理</t>
+  </si>
+  <si>
+    <t>64位计算机内存不可能做这么大，就搞个软件系统，虚拟出这么大的逻辑地址，这样开发人员就不用考虑真实的物理地址了。</t>
+  </si>
+  <si>
+    <t>通过存储器管理部件MMU，实现逻辑地址和物理地址的自动变换，操作系统把各级存储器同意的管理起来，</t>
+  </si>
+  <si>
+    <t>第四章：8086的寻址方式和指令系统</t>
+  </si>
+  <si>
+    <t>4.1微型机指令格式</t>
+  </si>
+  <si>
+    <t>放一放吧，太抽象了，不爱学</t>
   </si>
 </sst>
 </file>
@@ -245,15 +322,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -268,13 +352,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -282,7 +359,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,31 +382,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,16 +403,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,10 +434,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -382,7 +460,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,13 +468,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -410,6 +487,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -417,6 +501,18 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -426,7 +522,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,19 +606,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,31 +648,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,109 +684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,11 +698,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,50 +724,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,16 +744,54 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,10 +803,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,137 +815,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -869,6 +953,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1328,15 +1415,15 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="3"/>
+      <c r="V1" s="4"/>
       <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -1348,7 +1435,7 @@
       <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="3"/>
+      <c r="AE1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="2:30">
       <c r="B2"/>
@@ -1755,7 +1842,7 @@
     <row r="14" spans="2:30">
       <c r="B14"/>
       <c r="C14"/>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E14"/>
@@ -2238,7 +2325,7 @@
     </row>
     <row r="29" spans="3:30">
       <c r="C29"/>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E29"/>
@@ -2409,7 +2496,7 @@
       <c r="I34"/>
     </row>
     <row r="35" spans="4:4">
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2428,10 +2515,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE43"/>
+  <dimension ref="A1:AE58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -2440,15 +2527,15 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="3"/>
+      <c r="V1" s="4"/>
       <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -2460,7 +2547,7 @@
       <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="3"/>
+      <c r="AE1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:30">
       <c r="A2" s="1" t="s">
@@ -2646,6 +2733,82 @@
         <v>73</v>
       </c>
     </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5">
+      <c r="E54" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5">
+      <c r="E56" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2655,6 +2818,222 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AE8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="4"/>
+      <c r="W1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:30">
+      <c r="A2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4">
+      <c r="D7" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AE4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="4"/>
+      <c r="W1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:30">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
